--- a/7/2/2/1/2/2/Fondos de pensiones 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/2/Fondos de pensiones 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Serie</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5708,10 +5711,10 @@
         <v>5049</v>
       </c>
       <c r="D75">
-        <v>1955</v>
+        <v>1977</v>
       </c>
       <c r="E75">
-        <v>3094</v>
+        <v>3072</v>
       </c>
       <c r="F75">
         <v>69904</v>
@@ -5753,16 +5756,84 @@
         <v>160044</v>
       </c>
       <c r="S75">
-        <v>67495</v>
+        <v>67442</v>
       </c>
       <c r="T75">
-        <v>1939</v>
+        <v>1961</v>
       </c>
       <c r="U75">
-        <v>17128</v>
+        <v>17181</v>
       </c>
       <c r="V75">
-        <v>73481</v>
+        <v>73459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76">
+        <v>148520</v>
+      </c>
+      <c r="C76">
+        <v>4590</v>
+      </c>
+      <c r="D76">
+        <v>2146</v>
+      </c>
+      <c r="E76">
+        <v>2444</v>
+      </c>
+      <c r="F76">
+        <v>62410</v>
+      </c>
+      <c r="G76">
+        <v>3314</v>
+      </c>
+      <c r="H76">
+        <v>59096</v>
+      </c>
+      <c r="I76">
+        <v>98</v>
+      </c>
+      <c r="J76">
+        <v>81422</v>
+      </c>
+      <c r="K76">
+        <v>18009</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>63413</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>148520</v>
+      </c>
+      <c r="P76">
+        <v>147978</v>
+      </c>
+      <c r="Q76">
+        <v>542</v>
+      </c>
+      <c r="R76">
+        <v>148520</v>
+      </c>
+      <c r="S76">
+        <v>66707</v>
+      </c>
+      <c r="T76">
+        <v>1893</v>
+      </c>
+      <c r="U76">
+        <v>14714</v>
+      </c>
+      <c r="V76">
+        <v>65206</v>
       </c>
     </row>
   </sheetData>
